--- a/va_facility_data_2025-02-20/Dodge City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dodge%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Dodge City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Dodge%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rf41d2196ffcf4a588cb219625530f61e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc3c59a7087c040678e855974153b1eb5"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra3f0d715ba8f4c6da8f17027fd854702"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfdf1e9df08e042649f42158a92a5b815"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb876a9bb19074ffa9554dd95544e6d4b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R605de97833d6439c8f62b18a39e628d7"/>
   </x:sheets>
 </x:workbook>
 </file>
